--- a/eval/SUS.xlsx
+++ b/eval/SUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/930f5177d7cff30d/_UNI/Master/KP SCC/verdatas-graph/eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{945694FF-CE4A-44E8-9E7C-1C57E4EE252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC00E31A-ADA7-418B-AAB3-447C41DA50D1}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{945694FF-CE4A-44E8-9E7C-1C57E4EE252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10F7A8E6-7B00-46FD-AEC5-B362B419B8DD}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17115" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="14290" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
@@ -247,6 +247,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,9 +456,9 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1039,6 +1043,12 @@
       <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>3.5555555555555554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>SUM(B11:E11)/4</f>
+        <v>3.2777777777777777</v>
       </c>
     </row>
     <row r="21" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
